--- a/Optimisation9.xlsx
+++ b/Optimisation9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/cmtmd_leeds_ac_uk/Documents/Research PhD project infomation/Written documents/Papers/Autonomous HPLC method development using optimisation algorithms/paper code/Python code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{BCF33710-BC2B-4F1A-8132-BFEF0D1FD550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE4F4959-ED12-418A-A6A7-66B296656706}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{BCF33710-BC2B-4F1A-8132-BFEF0D1FD550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44991991-442F-4D11-8C02-C98AE82B59C3}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{BD664935-E066-43F8-A12F-C2FC597EFC43}"/>
+    <workbookView xWindow="1332" yWindow="1128" windowWidth="17280" windowHeight="8904" xr2:uid="{BD664935-E066-43F8-A12F-C2FC597EFC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>GradTime</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>WeightRespcmtmdHPLC018</t>
-  </si>
-  <si>
-    <t>Dist</t>
   </si>
   <si>
     <t>Dist2</t>
@@ -437,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8828E3-2CC5-4ED5-B33A-5674B3893062}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,11 +491,8 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>9.94</v>
       </c>
@@ -545,13 +539,10 @@
         <v>-0.104485736741394</v>
       </c>
       <c r="P2">
-        <v>0.63573145470648595</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>4.54</v>
       </c>
@@ -598,13 +589,10 @@
         <v>-5.9528230004442899E-2</v>
       </c>
       <c r="P3">
-        <v>0.80030451308320005</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2.67</v>
       </c>
@@ -651,13 +639,10 @@
         <v>-0.17743704104404101</v>
       </c>
       <c r="P4">
-        <v>0.299096304530234</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>6.95</v>
       </c>
@@ -704,13 +689,10 @@
         <v>-0.233195641129988</v>
       </c>
       <c r="P5">
-        <v>7.02944681463612E-2</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1.45</v>
       </c>
@@ -757,13 +739,10 @@
         <v>-2.80111229059605E-2</v>
       </c>
       <c r="P6">
-        <v>0.57778319521865196</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>8.68</v>
       </c>
@@ -810,13 +789,10 @@
         <v>-0.15974661392220699</v>
       </c>
       <c r="P7">
-        <v>0.71608399697905101</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>5.64</v>
       </c>
@@ -863,13 +839,10 @@
         <v>-4.3818383040543599E-2</v>
       </c>
       <c r="P8">
-        <v>0.53012112118391597</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>10</v>
       </c>
@@ -916,13 +889,10 @@
         <v>-0.21400052367028699</v>
       </c>
       <c r="P9">
-        <v>0.39863399826482498</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9.1517447583743294</v>
       </c>
@@ -969,13 +939,10 @@
         <v>-0.22833433473487899</v>
       </c>
       <c r="P10">
-        <v>0.22741508981199601</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>9.7763012502456803</v>
       </c>
@@ -1022,13 +989,10 @@
         <v>-0.25166852082244301</v>
       </c>
       <c r="P11">
-        <v>6.92649320491453E-2</v>
-      </c>
-      <c r="Q11">
-        <v>6.92649320491453E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.13651732741630099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>8.2790441603649398</v>
       </c>
@@ -1075,13 +1039,10 @@
         <v>-0.16970312242358601</v>
       </c>
       <c r="P12">
-        <v>0.34810453044248402</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>2.17995707604533</v>
       </c>
@@ -1128,13 +1089,10 @@
         <v>-7.1001785818526703E-2</v>
       </c>
       <c r="P13">
-        <v>0.80444566577712795</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>3.4610179709203202</v>
       </c>
@@ -1181,13 +1139,10 @@
         <v>3.6281880608803399E-2</v>
       </c>
       <c r="P14">
-        <v>0.93929558412932901</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1.3137238855571101</v>
       </c>
@@ -1234,13 +1189,10 @@
         <v>-7.6186399327242804E-2</v>
       </c>
       <c r="P15">
-        <v>0.80554163270664203</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1287,13 +1239,10 @@
         <v>-1.2600022693359299E-2</v>
       </c>
       <c r="P16">
-        <v>0.35378547744397898</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>7.7406169136731604</v>
       </c>
@@ -1340,13 +1289,10 @@
         <v>-0.20118461947473801</v>
       </c>
       <c r="P17">
-        <v>0.19563293245674701</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>8.6314392615910691</v>
       </c>
@@ -1393,13 +1339,10 @@
         <v>-3.1590518542359398E-2</v>
       </c>
       <c r="P18">
-        <v>0.281760115755326</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>9.4423283632806001</v>
       </c>
@@ -1446,13 +1389,10 @@
         <v>-8.8961034077692305E-2</v>
       </c>
       <c r="P19">
-        <v>0.73376821235607503</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>8.9516989835413199</v>
       </c>
@@ -1499,13 +1439,10 @@
         <v>-0.10559584918930499</v>
       </c>
       <c r="P20">
-        <v>0.66172458704475701</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>2.0149457746669301</v>
       </c>
@@ -1552,13 +1489,10 @@
         <v>1.53734597438788E-2</v>
       </c>
       <c r="P21">
-        <v>0.81725940406748798</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>4.0721319093443302</v>
       </c>
@@ -1605,13 +1539,10 @@
         <v>-0.132060968782482</v>
       </c>
       <c r="P22">
-        <v>0.48815631069849602</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>2.1242510966668302</v>
       </c>
@@ -1658,13 +1589,10 @@
         <v>-0.110478183374247</v>
       </c>
       <c r="P23">
-        <v>0.59353351505574103</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>9.7362945952444093</v>
       </c>
@@ -1711,13 +1639,10 @@
         <v>-0.238895964055126</v>
       </c>
       <c r="P24">
-        <v>0.143788942482171</v>
-      </c>
-      <c r="Q24">
-        <v>0.143788942482171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.31146221715383199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>10</v>
       </c>
@@ -1764,13 +1689,10 @@
         <v>-0.124966988271683</v>
       </c>
       <c r="P25">
-        <v>0.55130365507185997</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>10</v>
       </c>
@@ -1817,13 +1739,10 @@
         <v>-0.18202566610384999</v>
       </c>
       <c r="P26">
-        <v>0.275415126305251</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>8.4698712880435103</v>
       </c>
@@ -1870,13 +1789,10 @@
         <v>-9.9322238719976697E-2</v>
       </c>
       <c r="P27">
-        <v>0.66270364552221805</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>2.2871161469067198</v>
       </c>
@@ -1923,13 +1839,10 @@
         <v>-0.17239830164817399</v>
       </c>
       <c r="P28">
-        <v>0.32490005152799201</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>5.6282143289749902</v>
       </c>
@@ -1976,13 +1889,10 @@
         <v>-0.22810314857695299</v>
       </c>
       <c r="P29">
-        <v>9.4067115015104494E-2</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>10</v>
       </c>
@@ -2029,13 +1939,10 @@
         <v>-9.7688955984577802E-2</v>
       </c>
       <c r="P30">
-        <v>0.67325865298389997</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>3.0500576783931899</v>
       </c>
@@ -2082,13 +1989,10 @@
         <v>-0.157430185095672</v>
       </c>
       <c r="P31">
-        <v>0.484199693139372</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>7.6429469971360202</v>
       </c>
@@ -2135,13 +2039,10 @@
         <v>-0.114537394239188</v>
       </c>
       <c r="P32">
-        <v>0.61279238680303005</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>6.60881342432533</v>
       </c>
@@ -2188,13 +2089,10 @@
         <v>-0.20911419927639399</v>
       </c>
       <c r="P33">
-        <v>0.16691934227062899</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>1.1228310430439601</v>
       </c>
@@ -2241,13 +2139,10 @@
         <v>-5.4996772100801998E-2</v>
       </c>
       <c r="P34">
-        <v>0.52508607294711296</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>8.3270846622129895</v>
       </c>
@@ -2294,13 +2189,10 @@
         <v>-0.23855394897896101</v>
       </c>
       <c r="P35">
-        <v>9.6597053299814897E-2</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2347,13 +2239,10 @@
         <v>-3.3260582344049397E-2</v>
       </c>
       <c r="P36">
-        <v>0.54725886595436102</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>7.7873525890297897</v>
       </c>
@@ -2400,13 +2289,10 @@
         <v>-0.240401460976294</v>
       </c>
       <c r="P37">
-        <v>4.7159940956767003E-2</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2453,13 +2339,10 @@
         <v>-0.106775354920655</v>
       </c>
       <c r="P38">
-        <v>0.61775079754264295</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>2.6906768372000398</v>
       </c>
@@ -2506,13 +2389,10 @@
         <v>-0.112463517896362</v>
       </c>
       <c r="P39">
-        <v>0.58250768252848795</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2559,13 +2439,10 @@
         <v>-9.2019566911595893E-2</v>
       </c>
       <c r="P40">
-        <v>0.75448462699271801</v>
-      </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>1.37694532507736</v>
       </c>
@@ -2612,13 +2489,10 @@
         <v>-3.5034186599648999E-2</v>
       </c>
       <c r="P41">
-        <v>0.64105405944193505</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>1.3029866573779401</v>
       </c>
@@ -2665,13 +2539,10 @@
         <v>1.1488421396585E-2</v>
       </c>
       <c r="P42">
-        <v>0.76205959518727595</v>
-      </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>3.6610398809731501</v>
       </c>
@@ -2718,13 +2589,10 @@
         <v>-0.13645523749595101</v>
       </c>
       <c r="P43">
-        <v>0.52067629323551001</v>
-      </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>6.3374344945866801</v>
       </c>
@@ -2771,13 +2639,10 @@
         <v>-0.116259782054808</v>
       </c>
       <c r="P44">
-        <v>0.62076777290488705</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>2.5220785249854001</v>
       </c>
@@ -2824,13 +2689,10 @@
         <v>-7.4692232808011905E-2</v>
       </c>
       <c r="P45">
-        <v>0.80929759018467395</v>
-      </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>8.8358762938118094</v>
       </c>
@@ -2877,13 +2739,10 @@
         <v>-0.23351490223792601</v>
       </c>
       <c r="P46">
-        <v>9.7110422405967303E-2</v>
-      </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>4.3163557392949796</v>
       </c>
@@ -2930,13 +2789,10 @@
         <v>-0.21090790805756601</v>
       </c>
       <c r="P47">
-        <v>0.149775241559815</v>
-      </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2983,13 +2839,10 @@
         <v>-0.13717871826505401</v>
       </c>
       <c r="P48">
-        <v>0.52121012180135695</v>
-      </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3036,13 +2889,10 @@
         <v>3.7654717448416399E-2</v>
       </c>
       <c r="P49">
-        <v>0.58154634089133195</v>
-      </c>
-      <c r="Q49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>1.09116125119664</v>
       </c>
@@ -3089,13 +2939,10 @@
         <v>-0.111393891247427</v>
       </c>
       <c r="P50">
-        <v>0.59275165912038097</v>
-      </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3142,9 +2989,6 @@
         <v>-0.100987998604205</v>
       </c>
       <c r="P51">
-        <v>0.65717290277009399</v>
-      </c>
-      <c r="Q51">
         <v>1</v>
       </c>
     </row>
